--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -14,27 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Children Names</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Time on response </t>
-  </si>
-  <si>
-    <t>paco</t>
-  </si>
-  <si>
-    <t>pepe</t>
-  </si>
-  <si>
-    <t>bea</t>
+    <t>Compleat Time(s)</t>
+  </si>
+  <si>
+    <t>Punctuation</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>Fails</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Bea</t>
   </si>
   <si>
     <t>Rubén</t>
   </si>
   <si>
     <t>María</t>
+  </si>
+  <si>
+    <t>galdiolo</t>
+  </si>
+  <si>
+    <t>flor</t>
+  </si>
+  <si>
+    <t>palmera</t>
+  </si>
+  <si>
+    <t>bloso</t>
+  </si>
+  <si>
+    <t>Paco:</t>
+  </si>
+  <si>
+    <t>Pepe:</t>
+  </si>
+  <si>
+    <t>Bea:</t>
+  </si>
+  <si>
+    <t>Rubén:</t>
+  </si>
+  <si>
+    <t>María:</t>
   </si>
 </sst>
 </file>
@@ -366,58 +405,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12">
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12">
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12">
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12">
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Children Names</t>
   </si>
@@ -118,6 +118,194 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time on finish the game</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random data</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequential order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Random jiggly bit values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,13 +593,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +628,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -463,7 +657,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -486,7 +683,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -509,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -532,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -543,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:12">
       <c r="J7" t="s">
         <v>16</v>
       </c>
@@ -554,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12">
       <c r="K8" t="s">
         <v>12</v>
       </c>
@@ -562,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:12">
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -570,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12">
       <c r="K10" t="s">
         <v>14</v>
       </c>
@@ -578,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="1:12">
       <c r="J12" t="s">
         <v>17</v>
       </c>
@@ -589,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="1:12">
       <c r="K13" t="s">
         <v>12</v>
       </c>
@@ -597,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="1:12">
       <c r="K14" t="s">
         <v>13</v>
       </c>
@@ -605,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12">
       <c r="K15" t="s">
         <v>14</v>
       </c>
@@ -685,5 +885,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Children Names</t>
   </si>
@@ -118,194 +118,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time on finish the game</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Random data</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sequential order</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Random jiggly bit values</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,16 +405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -628,10 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -657,10 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -683,10 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -709,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -732,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -743,7 +543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="2:12">
       <c r="J7" t="s">
         <v>16</v>
       </c>
@@ -754,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="2:12">
       <c r="K8" t="s">
         <v>12</v>
       </c>
@@ -762,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="2:12">
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -770,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="2:12">
       <c r="K10" t="s">
         <v>14</v>
       </c>
@@ -778,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="2:12">
       <c r="J12" t="s">
         <v>17</v>
       </c>
@@ -789,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="2:12">
       <c r="K13" t="s">
         <v>12</v>
       </c>
@@ -797,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="2:12">
       <c r="K14" t="s">
         <v>13</v>
       </c>
@@ -805,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="2:12">
       <c r="K15" t="s">
         <v>14</v>
       </c>
@@ -885,6 +685,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -118,6 +118,207 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Puntuación y tiempos de niños</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,5 +886,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="19">
   <si>
-    <t>Children Names</t>
+    <t>Names</t>
   </si>
   <si>
-    <t>Compleat Time(s)</t>
+    <t>Time(s)</t>
   </si>
   <si>
     <t>Punctuation</t>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Fails</t>
-  </si>
-  <si>
-    <t>Names</t>
   </si>
   <si>
     <t>Paco</t>
@@ -150,26 +147,172 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo (s)</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Paco</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rubén</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>María</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bea</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rubén</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>María</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Paco</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Bea</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rubén</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>María</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Paco</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bea</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Rubén</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>María</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Paco</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pepe</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Bea</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Rubén</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>María</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -178,40 +321,15 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Puntuación (pts)</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -225,6 +343,66 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
@@ -286,6 +464,3386 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bea</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$37:$K$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rubén</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$42:$K$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$42:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>María</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$47:$K$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$47:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$52:$K$55</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$52:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pepe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$57:$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$57:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bea</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$62:$K$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$62:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rubén</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$67:$K$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$67:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50160001"/>
+        <c:axId val="50160002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50160001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50160002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>María</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$72:$K$75</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50170001"/>
+        <c:axId val="50170002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50170001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50170002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$77:$K$80</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$77:$L$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50180001"/>
+        <c:axId val="50180002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50180001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50180002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pepe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$82:$K$85</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$82:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50190001"/>
+        <c:axId val="50190002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50190001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50190002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Palabras más falladas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bea</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$87:$K$90</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$87:$L$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50200001"/>
+        <c:axId val="50200002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50200001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50200002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rubén</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$92:$K$95</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$92:$L$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50210001"/>
+        <c:axId val="50210002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50210001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50210002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>María</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$97:$K$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$97:$L$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50220001"/>
+        <c:axId val="50220002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50220001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50220002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$102:$K$105</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$102:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50230001"/>
+        <c:axId val="50230002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50230001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50230002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pepe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$107:$K$110</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$107:$L$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50240001"/>
+        <c:axId val="50240002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50240001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50240002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bea</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$112:$K$115</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$112:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50250001"/>
+        <c:axId val="50250002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50250001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50250002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rubén</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$117:$K$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$117:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50260001"/>
+        <c:axId val="50260002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50260001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50260002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>María</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$122:$K$125</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$122:$L$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50270001"/>
+        <c:axId val="50270002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50270001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50270002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$2:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pepe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$7:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bea</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$12:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rubén</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$17:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$17:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>María</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$22:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$22:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$27:$K$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$27:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pepe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fallos por palabra</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$32:$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>galdiolo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>flor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>palmera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$32:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFC2"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -313,6 +3871,786 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -606,7 +4944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -640,7 +4978,7 @@
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -649,16 +4987,16 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -666,7 +5004,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -675,13 +5013,13 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -689,7 +5027,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -698,13 +5036,13 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -712,7 +5050,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -721,13 +5059,13 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -735,7 +5073,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>122</v>
@@ -745,142 +5083,1030 @@
       </c>
     </row>
     <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>67</v>
+      </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+    </row>
     <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="10:12">
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:12">
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:12">
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:12">
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="10:12">
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>122</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>67</v>
+      </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:12">
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="10:12">
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:12">
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
       <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>122</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="J27" t="s">
         <v>14</v>
       </c>
-      <c r="L25">
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12">
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12">
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12">
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12">
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12">
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12">
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12">
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12">
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12">
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12">
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12">
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="10:12">
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:12">
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:12">
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="10:12">
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12">
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12">
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12">
+      <c r="K58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12">
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12">
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="10:12">
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="10:12">
+      <c r="K63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="10:12">
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="K68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="K73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12">
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="10:12">
+      <c r="K78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="10:12">
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12">
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="10:12">
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="10:12">
+      <c r="K83" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="10:12">
+      <c r="K84" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="10:12">
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="10:12">
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="10:12">
+      <c r="K88" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:12">
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="10:12">
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="10:12">
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="10:12">
+      <c r="K93" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="10:12">
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="10:12">
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12">
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12">
+      <c r="K98" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12">
+      <c r="K99" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12">
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12">
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12">
+      <c r="K103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12">
+      <c r="K104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12">
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12">
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12">
+      <c r="K108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12">
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12">
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12">
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12">
+      <c r="K113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12">
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12">
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="10:12">
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="10:12">
+      <c r="K118" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="10:12">
+      <c r="K119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="10:12">
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="10:12">
+      <c r="J122" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" t="s">
+        <v>10</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="10:12">
+      <c r="K123" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="10:12">
+      <c r="K124" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="10:12">
+      <c r="K125" t="s">
+        <v>13</v>
+      </c>
+      <c r="L125">
         <v>1</v>
       </c>
     </row>

--- a/Testing/B.xlsx
+++ b/Testing/B.xlsx
@@ -149,9 +149,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Paco</c:v>
                 </c:pt>
@@ -169,10 +169,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -197,10 +197,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
